--- a/LEDGER (Autosaved).xlsx
+++ b/LEDGER (Autosaved).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LEDGER" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="HAJI SHAFIQUE" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="257">
   <si>
     <t>DATE</t>
   </si>
@@ -960,6 +959,12 @@
   <si>
     <t>8000 FOR RORRI LABOUR</t>
   </si>
+  <si>
+    <t>BEFORE EID</t>
+  </si>
+  <si>
+    <t>50 + 26 + 4</t>
+  </si>
 </sst>
 </file>
 
@@ -970,7 +975,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;?_);_(@_)"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1175,6 +1180,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1765,10 +1777,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="295">
+  <cellXfs count="296">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2117,6 +2130,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="2" fillId="28" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2289,8 +2303,9 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="13">
     <dxf>
@@ -2662,8 +2677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T588"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" zoomScale="77" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J311" sqref="J311"/>
+    <sheetView topLeftCell="A284" zoomScale="77" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L305" sqref="L305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2723,21 +2738,21 @@
       <c r="P2" t="s">
         <v>52</v>
       </c>
-      <c r="R2" s="240"/>
-      <c r="S2" s="240"/>
-      <c r="T2" s="240"/>
+      <c r="R2" s="241"/>
+      <c r="S2" s="241"/>
+      <c r="T2" s="241"/>
     </row>
     <row r="3" spans="2:20" ht="21" x14ac:dyDescent="0.4">
-      <c r="B3" s="241" t="s">
+      <c r="B3" s="242" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="241"/>
-      <c r="D3" s="241"/>
-      <c r="E3" s="241"/>
-      <c r="F3" s="241"/>
-      <c r="G3" s="241"/>
-      <c r="H3" s="241"/>
-      <c r="I3" s="241"/>
+      <c r="C3" s="242"/>
+      <c r="D3" s="242"/>
+      <c r="E3" s="242"/>
+      <c r="F3" s="242"/>
+      <c r="G3" s="242"/>
+      <c r="H3" s="242"/>
+      <c r="I3" s="242"/>
       <c r="K3" s="3">
         <v>2</v>
       </c>
@@ -2755,14 +2770,14 @@
       </c>
     </row>
     <row r="4" spans="2:20" ht="21" x14ac:dyDescent="0.4">
-      <c r="B4" s="241"/>
-      <c r="C4" s="241"/>
-      <c r="D4" s="241"/>
-      <c r="E4" s="241"/>
-      <c r="F4" s="241"/>
-      <c r="G4" s="241"/>
-      <c r="H4" s="241"/>
-      <c r="I4" s="241"/>
+      <c r="B4" s="242"/>
+      <c r="C4" s="242"/>
+      <c r="D4" s="242"/>
+      <c r="E4" s="242"/>
+      <c r="F4" s="242"/>
+      <c r="G4" s="242"/>
+      <c r="H4" s="242"/>
+      <c r="I4" s="242"/>
       <c r="K4" s="3">
         <v>3</v>
       </c>
@@ -2921,10 +2936,10 @@
         <f t="shared" si="1"/>
         <v>1705100</v>
       </c>
-      <c r="P8" s="244" t="s">
+      <c r="P8" s="245" t="s">
         <v>75</v>
       </c>
-      <c r="Q8" s="239"/>
+      <c r="Q8" s="240"/>
     </row>
     <row r="9" spans="2:20" ht="21" x14ac:dyDescent="0.4">
       <c r="B9" s="13">
@@ -5064,7 +5079,7 @@
         <f t="shared" si="5"/>
         <v>1080205</v>
       </c>
-      <c r="J86" s="242" t="s">
+      <c r="J86" s="243" t="s">
         <v>60</v>
       </c>
       <c r="K86" s="20"/>
@@ -5096,7 +5111,7 @@
         <f t="shared" si="5"/>
         <v>1113011.8</v>
       </c>
-      <c r="J87" s="243"/>
+      <c r="J87" s="244"/>
     </row>
     <row r="88" spans="2:17" ht="21" x14ac:dyDescent="0.4">
       <c r="B88" s="89">
@@ -5430,7 +5445,7 @@
       <c r="P98" s="97" t="s">
         <v>84</v>
       </c>
-      <c r="Q98" s="245" t="s">
+      <c r="Q98" s="246" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5462,7 +5477,7 @@
         <v>3024388710</v>
       </c>
       <c r="P99" s="99"/>
-      <c r="Q99" s="246"/>
+      <c r="Q99" s="247"/>
     </row>
     <row r="100" spans="2:17" ht="21" x14ac:dyDescent="0.4">
       <c r="B100" s="120">
@@ -7176,10 +7191,10 @@
         <f>J170-H170</f>
         <v>0</v>
       </c>
-      <c r="K171" s="239" t="s">
+      <c r="K171" s="240" t="s">
         <v>135</v>
       </c>
-      <c r="L171" s="239"/>
+      <c r="L171" s="240"/>
     </row>
     <row r="172" spans="2:12" ht="21" x14ac:dyDescent="0.4">
       <c r="B172" s="132">
@@ -10843,10 +10858,10 @@
         <f t="shared" si="10"/>
         <v>12424414.659999998</v>
       </c>
-      <c r="J316" s="238" t="s">
+      <c r="J316" s="239" t="s">
         <v>227</v>
       </c>
-      <c r="K316" s="238"/>
+      <c r="K316" s="239"/>
     </row>
     <row r="317" spans="2:11" ht="21" x14ac:dyDescent="0.4">
       <c r="B317" s="26">
@@ -15309,13 +15324,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="50.4" x14ac:dyDescent="0.95">
-      <c r="B2" s="294" t="s">
+      <c r="B2" s="295" t="s">
         <v>174</v>
       </c>
-      <c r="C2" s="294"/>
-      <c r="D2" s="294"/>
-      <c r="E2" s="294"/>
-      <c r="F2" s="294"/>
+      <c r="C2" s="295"/>
+      <c r="D2" s="295"/>
+      <c r="E2" s="295"/>
+      <c r="F2" s="295"/>
     </row>
     <row r="3" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B3" s="50" t="s">
@@ -15558,29 +15573,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E40"/>
+  <dimension ref="B3:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" ht="40.200000000000003" x14ac:dyDescent="0.8">
-      <c r="B3" s="247" t="s">
+    <row r="3" spans="2:6" ht="40.200000000000003" x14ac:dyDescent="0.8">
+      <c r="B3" s="248" t="s">
         <v>252</v>
       </c>
-      <c r="C3" s="247"/>
-      <c r="D3" s="247"/>
-      <c r="E3" s="247"/>
-    </row>
-    <row r="4" spans="2:5" ht="21" x14ac:dyDescent="0.3">
+      <c r="C3" s="248"/>
+      <c r="D3" s="248"/>
+      <c r="E3" s="248"/>
+    </row>
+    <row r="4" spans="2:6" ht="21" x14ac:dyDescent="0.3">
       <c r="B4" s="51" t="s">
         <v>0</v>
       </c>
@@ -15594,7 +15610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="21" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" ht="21" x14ac:dyDescent="0.3">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
@@ -15602,7 +15618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:6" ht="21" x14ac:dyDescent="0.4">
       <c r="B6" s="7">
         <v>45429</v>
       </c>
@@ -15617,134 +15633,151 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="B7" s="7"/>
+    <row r="7" spans="2:6" ht="21" x14ac:dyDescent="0.4">
+      <c r="B7" s="117">
+        <v>45442</v>
+      </c>
       <c r="C7" s="157"/>
       <c r="D7" s="37">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="E7" s="23">
         <f t="shared" ref="E7:E40" si="0">E6+D7</f>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="B8" s="7"/>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="21" x14ac:dyDescent="0.4">
+      <c r="B8" s="117">
+        <v>45447</v>
+      </c>
       <c r="C8" s="195"/>
       <c r="D8" s="37">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="E8" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="B9" s="43"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="21" x14ac:dyDescent="0.4">
+      <c r="B9" s="117">
+        <v>45449</v>
+      </c>
       <c r="C9" s="158"/>
-      <c r="D9" s="43"/>
+      <c r="D9" s="238">
+        <v>30000</v>
+      </c>
       <c r="E9" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="B10" s="43"/>
-      <c r="C10" s="158"/>
-      <c r="D10" s="43"/>
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="21" x14ac:dyDescent="0.4">
+      <c r="B10" s="117">
+        <v>45459</v>
+      </c>
+      <c r="C10" s="158" t="s">
+        <v>255</v>
+      </c>
+      <c r="D10" s="238">
+        <v>80000</v>
+      </c>
       <c r="E10" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="21" x14ac:dyDescent="0.4">
+        <v>310000</v>
+      </c>
+      <c r="F10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="21" x14ac:dyDescent="0.4">
       <c r="B11" s="43"/>
       <c r="C11" s="158"/>
-      <c r="D11" s="43"/>
+      <c r="D11" s="238"/>
       <c r="E11" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="21" x14ac:dyDescent="0.4">
+        <v>310000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="21" x14ac:dyDescent="0.4">
       <c r="B12" s="43"/>
       <c r="C12" s="158"/>
-      <c r="D12" s="43"/>
+      <c r="D12" s="238"/>
       <c r="E12" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="21" x14ac:dyDescent="0.4">
+        <v>310000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="21" x14ac:dyDescent="0.4">
       <c r="B13" s="43"/>
       <c r="C13" s="158"/>
-      <c r="D13" s="43"/>
+      <c r="D13" s="238"/>
       <c r="E13" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="21" x14ac:dyDescent="0.4">
+        <v>310000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="21" x14ac:dyDescent="0.4">
       <c r="B14" s="43"/>
       <c r="C14" s="158"/>
-      <c r="D14" s="43"/>
+      <c r="D14" s="238"/>
       <c r="E14" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="21" x14ac:dyDescent="0.4">
+        <v>310000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="21" x14ac:dyDescent="0.4">
       <c r="B15" s="43"/>
       <c r="C15" s="158"/>
-      <c r="D15" s="43"/>
+      <c r="D15" s="238"/>
       <c r="E15" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="21" x14ac:dyDescent="0.4">
+        <v>310000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="21" x14ac:dyDescent="0.4">
       <c r="B16" s="43"/>
       <c r="C16" s="158"/>
-      <c r="D16" s="43"/>
+      <c r="D16" s="238"/>
       <c r="E16" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>310000</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B17" s="43"/>
       <c r="C17" s="158"/>
-      <c r="D17" s="43"/>
+      <c r="D17" s="238"/>
       <c r="E17" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>310000</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B18" s="43"/>
       <c r="C18" s="158"/>
-      <c r="D18" s="43"/>
+      <c r="D18" s="238"/>
       <c r="E18" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>310000</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B19" s="43"/>
       <c r="C19" s="158"/>
-      <c r="D19" s="43"/>
+      <c r="D19" s="238"/>
       <c r="E19" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>310000</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B20" s="43"/>
       <c r="C20" s="158"/>
-      <c r="D20" s="43"/>
+      <c r="D20" s="238"/>
       <c r="E20" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>310000</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15753,7 +15786,7 @@
       <c r="D21" s="43"/>
       <c r="E21" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>310000</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15762,7 +15795,7 @@
       <c r="D22" s="43"/>
       <c r="E22" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>310000</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15771,7 +15804,7 @@
       <c r="D23" s="43"/>
       <c r="E23" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>310000</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15780,7 +15813,7 @@
       <c r="D24" s="43"/>
       <c r="E24" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>310000</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15789,7 +15822,7 @@
       <c r="D25" s="43"/>
       <c r="E25" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>310000</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15798,7 +15831,7 @@
       <c r="D26" s="43"/>
       <c r="E26" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>310000</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15807,7 +15840,7 @@
       <c r="D27" s="43"/>
       <c r="E27" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>310000</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15816,7 +15849,7 @@
       <c r="D28" s="43"/>
       <c r="E28" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>310000</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15825,7 +15858,7 @@
       <c r="D29" s="43"/>
       <c r="E29" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>310000</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15834,7 +15867,7 @@
       <c r="D30" s="43"/>
       <c r="E30" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>310000</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15843,7 +15876,7 @@
       <c r="D31" s="43"/>
       <c r="E31" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>310000</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15852,7 +15885,7 @@
       <c r="D32" s="43"/>
       <c r="E32" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>310000</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15861,7 +15894,7 @@
       <c r="D33" s="43"/>
       <c r="E33" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>310000</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15870,7 +15903,7 @@
       <c r="D34" s="43"/>
       <c r="E34" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>310000</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15879,7 +15912,7 @@
       <c r="D35" s="43"/>
       <c r="E35" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>310000</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15888,7 +15921,7 @@
       <c r="D36" s="43"/>
       <c r="E36" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>310000</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15897,7 +15930,7 @@
       <c r="D37" s="43"/>
       <c r="E37" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>310000</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15906,7 +15939,7 @@
       <c r="D38" s="43"/>
       <c r="E38" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>310000</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15915,7 +15948,7 @@
       <c r="D39" s="43"/>
       <c r="E39" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>310000</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -15924,7 +15957,7 @@
       <c r="D40" s="43"/>
       <c r="E40" s="11">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>310000</v>
       </c>
     </row>
   </sheetData>
@@ -15932,6 +15965,7 @@
     <mergeCell ref="B3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15942,8 +15976,8 @@
   </sheetPr>
   <dimension ref="B3:J192"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15957,12 +15991,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="40.200000000000003" x14ac:dyDescent="0.8">
-      <c r="B3" s="247" t="s">
+      <c r="B3" s="248" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="247"/>
-      <c r="D3" s="247"/>
-      <c r="E3" s="247"/>
+      <c r="C3" s="248"/>
+      <c r="D3" s="248"/>
+      <c r="E3" s="248"/>
     </row>
     <row r="4" spans="2:9" ht="21" x14ac:dyDescent="0.3">
       <c r="B4" s="51" t="s">
@@ -16201,11 +16235,11 @@
       <c r="F19" t="s">
         <v>151</v>
       </c>
-      <c r="H19" s="248" t="s">
+      <c r="H19" s="249" t="s">
         <v>214</v>
       </c>
-      <c r="I19" s="249"/>
-      <c r="J19" s="250"/>
+      <c r="I19" s="250"/>
+      <c r="J19" s="251"/>
     </row>
     <row r="20" spans="2:10" ht="21" x14ac:dyDescent="0.4">
       <c r="B20" s="204">
@@ -16221,9 +16255,9 @@
         <f t="shared" si="0"/>
         <v>527600</v>
       </c>
-      <c r="H20" s="251"/>
-      <c r="I20" s="252"/>
-      <c r="J20" s="253"/>
+      <c r="H20" s="252"/>
+      <c r="I20" s="253"/>
+      <c r="J20" s="254"/>
     </row>
     <row r="21" spans="2:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="206">
@@ -16239,9 +16273,9 @@
         <f t="shared" si="0"/>
         <v>606600</v>
       </c>
-      <c r="H21" s="254"/>
-      <c r="I21" s="255"/>
-      <c r="J21" s="256"/>
+      <c r="H21" s="255"/>
+      <c r="I21" s="256"/>
+      <c r="J21" s="257"/>
     </row>
     <row r="22" spans="2:10" ht="21" x14ac:dyDescent="0.4">
       <c r="B22" s="197">
@@ -16332,11 +16366,11 @@
         <f t="shared" si="0"/>
         <v>983100</v>
       </c>
-      <c r="H27" s="248" t="s">
+      <c r="H27" s="249" t="s">
         <v>215</v>
       </c>
-      <c r="I27" s="249"/>
-      <c r="J27" s="250"/>
+      <c r="I27" s="250"/>
+      <c r="J27" s="251"/>
     </row>
     <row r="28" spans="2:10" ht="21" x14ac:dyDescent="0.4">
       <c r="B28" s="204">
@@ -16352,9 +16386,9 @@
         <f t="shared" si="0"/>
         <v>1103100</v>
       </c>
-      <c r="H28" s="251"/>
-      <c r="I28" s="252"/>
-      <c r="J28" s="253"/>
+      <c r="H28" s="252"/>
+      <c r="I28" s="253"/>
+      <c r="J28" s="254"/>
     </row>
     <row r="29" spans="2:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B29" s="206">
@@ -16370,9 +16404,9 @@
         <f t="shared" si="0"/>
         <v>1130100</v>
       </c>
-      <c r="H29" s="254"/>
-      <c r="I29" s="255"/>
-      <c r="J29" s="256"/>
+      <c r="H29" s="255"/>
+      <c r="I29" s="256"/>
+      <c r="J29" s="257"/>
     </row>
     <row r="30" spans="2:10" ht="21" x14ac:dyDescent="0.4">
       <c r="B30" s="197">
@@ -16845,28 +16879,36 @@
         <f t="shared" si="0"/>
         <v>2970300</v>
       </c>
-      <c r="G61" s="257" t="s">
+      <c r="G61" s="258" t="s">
         <v>254</v>
       </c>
-      <c r="H61" s="257"/>
-      <c r="I61" s="257"/>
+      <c r="H61" s="258"/>
+      <c r="I61" s="258"/>
     </row>
     <row r="62" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B62" s="43"/>
+      <c r="B62" s="117">
+        <v>45467</v>
+      </c>
       <c r="C62" s="103"/>
-      <c r="D62" s="11"/>
+      <c r="D62" s="11">
+        <v>30000</v>
+      </c>
       <c r="E62" s="11">
         <f t="shared" si="0"/>
-        <v>2970300</v>
+        <v>3000300</v>
       </c>
     </row>
     <row r="63" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B63" s="43"/>
+      <c r="B63" s="117">
+        <v>45470</v>
+      </c>
       <c r="C63" s="103"/>
-      <c r="D63" s="11"/>
+      <c r="D63" s="11">
+        <v>30000</v>
+      </c>
       <c r="E63" s="11">
         <f t="shared" si="0"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="64" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -16875,7 +16917,7 @@
       <c r="D64" s="11"/>
       <c r="E64" s="11">
         <f t="shared" si="0"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="65" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -16884,7 +16926,7 @@
       <c r="D65" s="11"/>
       <c r="E65" s="11">
         <f t="shared" si="0"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -16893,7 +16935,7 @@
       <c r="D66" s="11"/>
       <c r="E66" s="11">
         <f t="shared" si="0"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -16902,7 +16944,7 @@
       <c r="D67" s="11"/>
       <c r="E67" s="11">
         <f t="shared" si="0"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -16911,7 +16953,7 @@
       <c r="D68" s="11"/>
       <c r="E68" s="11">
         <f t="shared" si="0"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="69" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -16920,7 +16962,7 @@
       <c r="D69" s="11"/>
       <c r="E69" s="11">
         <f t="shared" si="0"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="70" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -16929,7 +16971,7 @@
       <c r="D70" s="11"/>
       <c r="E70" s="11">
         <f t="shared" si="0"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="71" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -16938,7 +16980,7 @@
       <c r="D71" s="11"/>
       <c r="E71" s="11">
         <f t="shared" ref="E71:E134" si="1">E70+D71</f>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="72" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -16947,7 +16989,7 @@
       <c r="D72" s="11"/>
       <c r="E72" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="73" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -16956,7 +16998,7 @@
       <c r="D73" s="11"/>
       <c r="E73" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="74" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -16965,7 +17007,7 @@
       <c r="D74" s="11"/>
       <c r="E74" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="75" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -16974,7 +17016,7 @@
       <c r="D75" s="11"/>
       <c r="E75" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="76" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -16983,7 +17025,7 @@
       <c r="D76" s="11"/>
       <c r="E76" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="77" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -16992,7 +17034,7 @@
       <c r="D77" s="11"/>
       <c r="E77" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="78" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17001,7 +17043,7 @@
       <c r="D78" s="11"/>
       <c r="E78" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="79" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17010,7 +17052,7 @@
       <c r="D79" s="11"/>
       <c r="E79" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="80" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17019,7 +17061,7 @@
       <c r="D80" s="11"/>
       <c r="E80" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="81" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17028,7 +17070,7 @@
       <c r="D81" s="11"/>
       <c r="E81" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="82" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17037,7 +17079,7 @@
       <c r="D82" s="11"/>
       <c r="E82" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="83" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17046,7 +17088,7 @@
       <c r="D83" s="11"/>
       <c r="E83" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="84" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17055,7 +17097,7 @@
       <c r="D84" s="11"/>
       <c r="E84" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="85" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17064,7 +17106,7 @@
       <c r="D85" s="11"/>
       <c r="E85" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="86" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17073,7 +17115,7 @@
       <c r="D86" s="11"/>
       <c r="E86" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="87" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17082,7 +17124,7 @@
       <c r="D87" s="11"/>
       <c r="E87" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="88" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17091,7 +17133,7 @@
       <c r="D88" s="11"/>
       <c r="E88" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="89" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17100,7 +17142,7 @@
       <c r="D89" s="11"/>
       <c r="E89" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="90" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17109,7 +17151,7 @@
       <c r="D90" s="11"/>
       <c r="E90" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="91" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17118,7 +17160,7 @@
       <c r="D91" s="11"/>
       <c r="E91" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="92" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17127,7 +17169,7 @@
       <c r="D92" s="11"/>
       <c r="E92" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="93" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17136,7 +17178,7 @@
       <c r="D93" s="11"/>
       <c r="E93" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="94" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17145,7 +17187,7 @@
       <c r="D94" s="11"/>
       <c r="E94" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="95" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17154,7 +17196,7 @@
       <c r="D95" s="11"/>
       <c r="E95" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="96" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17163,7 +17205,7 @@
       <c r="D96" s="11"/>
       <c r="E96" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="97" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17172,7 +17214,7 @@
       <c r="D97" s="11"/>
       <c r="E97" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="98" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17181,7 +17223,7 @@
       <c r="D98" s="11"/>
       <c r="E98" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="99" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17190,7 +17232,7 @@
       <c r="D99" s="11"/>
       <c r="E99" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="100" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17199,7 +17241,7 @@
       <c r="D100" s="11"/>
       <c r="E100" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="101" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17208,7 +17250,7 @@
       <c r="D101" s="11"/>
       <c r="E101" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="102" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17217,7 +17259,7 @@
       <c r="D102" s="11"/>
       <c r="E102" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="103" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17226,7 +17268,7 @@
       <c r="D103" s="11"/>
       <c r="E103" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="104" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17235,7 +17277,7 @@
       <c r="D104" s="11"/>
       <c r="E104" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="105" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17244,7 +17286,7 @@
       <c r="D105" s="11"/>
       <c r="E105" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="106" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17253,7 +17295,7 @@
       <c r="D106" s="11"/>
       <c r="E106" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="107" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17262,7 +17304,7 @@
       <c r="D107" s="11"/>
       <c r="E107" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="108" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17271,7 +17313,7 @@
       <c r="D108" s="11"/>
       <c r="E108" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="109" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17280,7 +17322,7 @@
       <c r="D109" s="11"/>
       <c r="E109" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="110" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17289,7 +17331,7 @@
       <c r="D110" s="11"/>
       <c r="E110" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="111" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17298,7 +17340,7 @@
       <c r="D111" s="11"/>
       <c r="E111" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="112" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17307,7 +17349,7 @@
       <c r="D112" s="11"/>
       <c r="E112" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="113" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17316,7 +17358,7 @@
       <c r="D113" s="11"/>
       <c r="E113" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="114" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17325,7 +17367,7 @@
       <c r="D114" s="11"/>
       <c r="E114" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="115" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17334,7 +17376,7 @@
       <c r="D115" s="11"/>
       <c r="E115" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="116" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17343,7 +17385,7 @@
       <c r="D116" s="11"/>
       <c r="E116" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="117" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17352,7 +17394,7 @@
       <c r="D117" s="11"/>
       <c r="E117" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="118" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17361,7 +17403,7 @@
       <c r="D118" s="11"/>
       <c r="E118" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="119" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17370,7 +17412,7 @@
       <c r="D119" s="11"/>
       <c r="E119" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="120" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17379,7 +17421,7 @@
       <c r="D120" s="11"/>
       <c r="E120" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="121" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17388,7 +17430,7 @@
       <c r="D121" s="11"/>
       <c r="E121" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="122" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17397,7 +17439,7 @@
       <c r="D122" s="11"/>
       <c r="E122" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="123" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17406,7 +17448,7 @@
       <c r="D123" s="11"/>
       <c r="E123" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="124" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17415,7 +17457,7 @@
       <c r="D124" s="11"/>
       <c r="E124" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="125" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17424,7 +17466,7 @@
       <c r="D125" s="11"/>
       <c r="E125" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="126" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17433,7 +17475,7 @@
       <c r="D126" s="11"/>
       <c r="E126" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="127" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17442,7 +17484,7 @@
       <c r="D127" s="11"/>
       <c r="E127" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="128" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17451,7 +17493,7 @@
       <c r="D128" s="11"/>
       <c r="E128" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="129" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17460,7 +17502,7 @@
       <c r="D129" s="11"/>
       <c r="E129" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="130" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17469,7 +17511,7 @@
       <c r="D130" s="11"/>
       <c r="E130" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="131" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17478,7 +17520,7 @@
       <c r="D131" s="11"/>
       <c r="E131" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="132" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17487,7 +17529,7 @@
       <c r="D132" s="11"/>
       <c r="E132" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="133" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17496,7 +17538,7 @@
       <c r="D133" s="11"/>
       <c r="E133" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="134" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17505,7 +17547,7 @@
       <c r="D134" s="11"/>
       <c r="E134" s="11">
         <f t="shared" si="1"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="135" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17514,7 +17556,7 @@
       <c r="D135" s="11"/>
       <c r="E135" s="11">
         <f t="shared" ref="E135:E192" si="2">E134+D135</f>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="136" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17523,7 +17565,7 @@
       <c r="D136" s="11"/>
       <c r="E136" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="137" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17532,7 +17574,7 @@
       <c r="D137" s="11"/>
       <c r="E137" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="138" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17541,7 +17583,7 @@
       <c r="D138" s="11"/>
       <c r="E138" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="139" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17550,7 +17592,7 @@
       <c r="D139" s="11"/>
       <c r="E139" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="140" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17559,7 +17601,7 @@
       <c r="D140" s="11"/>
       <c r="E140" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="141" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17568,7 +17610,7 @@
       <c r="D141" s="11"/>
       <c r="E141" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="142" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17577,7 +17619,7 @@
       <c r="D142" s="11"/>
       <c r="E142" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="143" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17586,7 +17628,7 @@
       <c r="D143" s="11"/>
       <c r="E143" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="144" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17595,7 +17637,7 @@
       <c r="D144" s="11"/>
       <c r="E144" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="145" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17604,7 +17646,7 @@
       <c r="D145" s="11"/>
       <c r="E145" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="146" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17613,7 +17655,7 @@
       <c r="D146" s="11"/>
       <c r="E146" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="147" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17622,7 +17664,7 @@
       <c r="D147" s="11"/>
       <c r="E147" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="148" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17631,7 +17673,7 @@
       <c r="D148" s="11"/>
       <c r="E148" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="149" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17640,7 +17682,7 @@
       <c r="D149" s="11"/>
       <c r="E149" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="150" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17649,7 +17691,7 @@
       <c r="D150" s="11"/>
       <c r="E150" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="151" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17658,7 +17700,7 @@
       <c r="D151" s="11"/>
       <c r="E151" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="152" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17667,7 +17709,7 @@
       <c r="D152" s="11"/>
       <c r="E152" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="153" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17676,7 +17718,7 @@
       <c r="D153" s="11"/>
       <c r="E153" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="154" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17685,7 +17727,7 @@
       <c r="D154" s="11"/>
       <c r="E154" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="155" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17694,7 +17736,7 @@
       <c r="D155" s="11"/>
       <c r="E155" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="156" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17703,7 +17745,7 @@
       <c r="D156" s="11"/>
       <c r="E156" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="157" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17712,7 +17754,7 @@
       <c r="D157" s="11"/>
       <c r="E157" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="158" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17721,7 +17763,7 @@
       <c r="D158" s="11"/>
       <c r="E158" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="159" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17730,7 +17772,7 @@
       <c r="D159" s="11"/>
       <c r="E159" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="160" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17739,7 +17781,7 @@
       <c r="D160" s="11"/>
       <c r="E160" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="161" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17748,7 +17790,7 @@
       <c r="D161" s="11"/>
       <c r="E161" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="162" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17757,7 +17799,7 @@
       <c r="D162" s="11"/>
       <c r="E162" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="163" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17766,7 +17808,7 @@
       <c r="D163" s="11"/>
       <c r="E163" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="164" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17775,7 +17817,7 @@
       <c r="D164" s="11"/>
       <c r="E164" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="165" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17784,7 +17826,7 @@
       <c r="D165" s="11"/>
       <c r="E165" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="166" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17793,7 +17835,7 @@
       <c r="D166" s="11"/>
       <c r="E166" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="167" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17802,7 +17844,7 @@
       <c r="D167" s="11"/>
       <c r="E167" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="168" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17811,7 +17853,7 @@
       <c r="D168" s="11"/>
       <c r="E168" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="169" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17820,7 +17862,7 @@
       <c r="D169" s="11"/>
       <c r="E169" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="170" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17829,7 +17871,7 @@
       <c r="D170" s="11"/>
       <c r="E170" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="171" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17838,7 +17880,7 @@
       <c r="D171" s="11"/>
       <c r="E171" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="172" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17847,7 +17889,7 @@
       <c r="D172" s="11"/>
       <c r="E172" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="173" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17856,7 +17898,7 @@
       <c r="D173" s="11"/>
       <c r="E173" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="174" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17865,7 +17907,7 @@
       <c r="D174" s="11"/>
       <c r="E174" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="175" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17874,7 +17916,7 @@
       <c r="D175" s="11"/>
       <c r="E175" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="176" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17883,7 +17925,7 @@
       <c r="D176" s="11"/>
       <c r="E176" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="177" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17892,7 +17934,7 @@
       <c r="D177" s="11"/>
       <c r="E177" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="178" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17901,7 +17943,7 @@
       <c r="D178" s="11"/>
       <c r="E178" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="179" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17910,7 +17952,7 @@
       <c r="D179" s="11"/>
       <c r="E179" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="180" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17919,7 +17961,7 @@
       <c r="D180" s="11"/>
       <c r="E180" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="181" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17928,7 +17970,7 @@
       <c r="D181" s="11"/>
       <c r="E181" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="182" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17937,7 +17979,7 @@
       <c r="D182" s="11"/>
       <c r="E182" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="183" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17946,7 +17988,7 @@
       <c r="D183" s="11"/>
       <c r="E183" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="184" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17955,7 +17997,7 @@
       <c r="D184" s="11"/>
       <c r="E184" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="185" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17964,7 +18006,7 @@
       <c r="D185" s="11"/>
       <c r="E185" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="186" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17973,7 +18015,7 @@
       <c r="D186" s="11"/>
       <c r="E186" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="187" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17982,7 +18024,7 @@
       <c r="D187" s="11"/>
       <c r="E187" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="188" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -17991,7 +18033,7 @@
       <c r="D188" s="11"/>
       <c r="E188" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="189" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -18000,7 +18042,7 @@
       <c r="D189" s="11"/>
       <c r="E189" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="190" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -18009,7 +18051,7 @@
       <c r="D190" s="11"/>
       <c r="E190" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="191" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -18018,7 +18060,7 @@
       <c r="D191" s="11"/>
       <c r="E191" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
     <row r="192" spans="2:5" ht="21" x14ac:dyDescent="0.4">
@@ -18027,7 +18069,7 @@
       <c r="D192" s="11"/>
       <c r="E192" s="11">
         <f t="shared" si="2"/>
-        <v>2970300</v>
+        <v>3030300</v>
       </c>
     </row>
   </sheetData>
@@ -18046,7 +18088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:L66"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
@@ -18058,12 +18100,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" ht="40.200000000000003" x14ac:dyDescent="0.8">
-      <c r="B3" s="247" t="s">
+      <c r="B3" s="248" t="s">
         <v>220</v>
       </c>
-      <c r="C3" s="247"/>
-      <c r="D3" s="247"/>
-      <c r="E3" s="247"/>
+      <c r="C3" s="248"/>
+      <c r="D3" s="248"/>
+      <c r="E3" s="248"/>
     </row>
     <row r="4" spans="2:6" ht="21" x14ac:dyDescent="0.3">
       <c r="B4" s="51" t="s">
@@ -18426,7 +18468,7 @@
       </c>
       <c r="I25" s="229">
         <f ca="1">TODAY()</f>
-        <v>45450</v>
+        <v>45576</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="21" x14ac:dyDescent="0.4">
@@ -18684,10 +18726,10 @@
       <c r="F40" t="s">
         <v>221</v>
       </c>
-      <c r="G40" s="258" t="s">
+      <c r="G40" s="259" t="s">
         <v>241</v>
       </c>
-      <c r="H40" s="258"/>
+      <c r="H40" s="259"/>
     </row>
     <row r="41" spans="2:12" ht="21" x14ac:dyDescent="0.4">
       <c r="B41" s="7">
@@ -18739,15 +18781,15 @@
         <f t="shared" si="0"/>
         <v>481650</v>
       </c>
-      <c r="F43" s="259" t="s">
+      <c r="F43" s="260" t="s">
         <v>244</v>
       </c>
-      <c r="G43" s="260"/>
-      <c r="H43" s="260"/>
-      <c r="I43" s="260"/>
-      <c r="J43" s="260"/>
-      <c r="K43" s="260"/>
-      <c r="L43" s="260"/>
+      <c r="G43" s="261"/>
+      <c r="H43" s="261"/>
+      <c r="I43" s="261"/>
+      <c r="J43" s="261"/>
+      <c r="K43" s="261"/>
+      <c r="L43" s="261"/>
     </row>
     <row r="44" spans="2:12" ht="21" x14ac:dyDescent="0.4">
       <c r="B44" s="7">
@@ -19023,18 +19065,18 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C5" s="261" t="s">
+      <c r="C5" s="262" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="261"/>
-      <c r="E5" s="261"/>
-      <c r="F5" s="261"/>
+      <c r="D5" s="262"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="262"/>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C6" s="261"/>
-      <c r="D6" s="261"/>
-      <c r="E6" s="261"/>
-      <c r="F6" s="261"/>
+      <c r="C6" s="262"/>
+      <c r="D6" s="262"/>
+      <c r="E6" s="262"/>
+      <c r="F6" s="262"/>
     </row>
     <row r="7" spans="3:6" ht="21" x14ac:dyDescent="0.4">
       <c r="C7" s="3" t="s">
@@ -19182,18 +19224,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="261" t="s">
+      <c r="B2" s="262" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="261"/>
-      <c r="D2" s="261"/>
-      <c r="E2" s="261"/>
+      <c r="C2" s="262"/>
+      <c r="D2" s="262"/>
+      <c r="E2" s="262"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="261"/>
-      <c r="C3" s="261"/>
-      <c r="D3" s="261"/>
-      <c r="E3" s="261"/>
+      <c r="B3" s="262"/>
+      <c r="C3" s="262"/>
+      <c r="D3" s="262"/>
+      <c r="E3" s="262"/>
     </row>
     <row r="4" spans="2:6" ht="21" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
@@ -19356,14 +19398,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="B2" s="262" t="s">
+      <c r="B2" s="263" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="262"/>
-      <c r="D2" s="262"/>
-      <c r="E2" s="262"/>
-      <c r="F2" s="262"/>
-      <c r="G2" s="262"/>
+      <c r="C2" s="263"/>
+      <c r="D2" s="263"/>
+      <c r="E2" s="263"/>
+      <c r="F2" s="263"/>
+      <c r="G2" s="263"/>
     </row>
     <row r="3" spans="2:13" ht="21" x14ac:dyDescent="0.3">
       <c r="B3" s="51" t="s">
@@ -19384,9 +19426,9 @@
       <c r="G3" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="263"/>
-      <c r="J3" s="263"/>
-      <c r="K3" s="263"/>
+      <c r="I3" s="264"/>
+      <c r="J3" s="264"/>
+      <c r="K3" s="264"/>
     </row>
     <row r="4" spans="2:13" ht="21" x14ac:dyDescent="0.3">
       <c r="B4" s="4"/>
@@ -25031,12 +25073,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="37.200000000000003" x14ac:dyDescent="0.75">
-      <c r="B2" s="264" t="s">
+      <c r="B2" s="265" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="264"/>
-      <c r="D2" s="264"/>
-      <c r="E2" s="264"/>
+      <c r="C2" s="265"/>
+      <c r="D2" s="265"/>
+      <c r="E2" s="265"/>
     </row>
     <row r="3" spans="2:5" ht="21" x14ac:dyDescent="0.3">
       <c r="B3" s="51" t="s">
@@ -25323,28 +25365,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="265" t="s">
+      <c r="B2" s="266" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="266"/>
-      <c r="D2" s="266"/>
-      <c r="E2" s="266"/>
-      <c r="F2" s="266"/>
-      <c r="G2" s="266"/>
-      <c r="H2" s="266"/>
-      <c r="I2" s="266"/>
-      <c r="J2" s="267"/>
+      <c r="C2" s="267"/>
+      <c r="D2" s="267"/>
+      <c r="E2" s="267"/>
+      <c r="F2" s="267"/>
+      <c r="G2" s="267"/>
+      <c r="H2" s="267"/>
+      <c r="I2" s="267"/>
+      <c r="J2" s="268"/>
     </row>
     <row r="3" spans="2:13" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="268"/>
-      <c r="C3" s="269"/>
-      <c r="D3" s="269"/>
-      <c r="E3" s="269"/>
-      <c r="F3" s="269"/>
-      <c r="G3" s="269"/>
-      <c r="H3" s="269"/>
-      <c r="I3" s="269"/>
-      <c r="J3" s="270"/>
+      <c r="B3" s="269"/>
+      <c r="C3" s="270"/>
+      <c r="D3" s="270"/>
+      <c r="E3" s="270"/>
+      <c r="F3" s="270"/>
+      <c r="G3" s="270"/>
+      <c r="H3" s="270"/>
+      <c r="I3" s="270"/>
+      <c r="J3" s="271"/>
     </row>
     <row r="4" spans="2:13" ht="21" x14ac:dyDescent="0.3">
       <c r="B4" s="181" t="s">
@@ -25422,11 +25464,11 @@
         <f>K4+D6</f>
         <v>2500</v>
       </c>
-      <c r="K6" s="271" t="s">
+      <c r="K6" s="272" t="s">
         <v>192</v>
       </c>
-      <c r="L6" s="272"/>
-      <c r="M6" s="273"/>
+      <c r="L6" s="273"/>
+      <c r="M6" s="274"/>
     </row>
     <row r="7" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="171">
@@ -25457,9 +25499,9 @@
         <f t="shared" ref="J7:J48" si="2">J6+D7</f>
         <v>5000</v>
       </c>
-      <c r="K7" s="274"/>
-      <c r="L7" s="275"/>
-      <c r="M7" s="276"/>
+      <c r="K7" s="275"/>
+      <c r="L7" s="276"/>
+      <c r="M7" s="277"/>
     </row>
     <row r="8" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="171">
@@ -25490,9 +25532,9 @@
         <f t="shared" si="2"/>
         <v>7500</v>
       </c>
-      <c r="K8" s="274"/>
-      <c r="L8" s="275"/>
-      <c r="M8" s="276"/>
+      <c r="K8" s="275"/>
+      <c r="L8" s="276"/>
+      <c r="M8" s="277"/>
     </row>
     <row r="9" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="171">
@@ -25523,9 +25565,9 @@
         <f t="shared" si="2"/>
         <v>10000</v>
       </c>
-      <c r="K9" s="274"/>
-      <c r="L9" s="275"/>
-      <c r="M9" s="276"/>
+      <c r="K9" s="275"/>
+      <c r="L9" s="276"/>
+      <c r="M9" s="277"/>
     </row>
     <row r="10" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B10" s="174">
@@ -25550,9 +25592,9 @@
         <f t="shared" si="2"/>
         <v>10000</v>
       </c>
-      <c r="K10" s="274"/>
-      <c r="L10" s="275"/>
-      <c r="M10" s="276"/>
+      <c r="K10" s="275"/>
+      <c r="L10" s="276"/>
+      <c r="M10" s="277"/>
     </row>
     <row r="11" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="171">
@@ -25583,9 +25625,9 @@
         <f t="shared" si="2"/>
         <v>12500</v>
       </c>
-      <c r="K11" s="274"/>
-      <c r="L11" s="275"/>
-      <c r="M11" s="276"/>
+      <c r="K11" s="275"/>
+      <c r="L11" s="276"/>
+      <c r="M11" s="277"/>
     </row>
     <row r="12" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="213">
@@ -25616,9 +25658,9 @@
         <f t="shared" si="2"/>
         <v>15000</v>
       </c>
-      <c r="K12" s="274"/>
-      <c r="L12" s="275"/>
-      <c r="M12" s="276"/>
+      <c r="K12" s="275"/>
+      <c r="L12" s="276"/>
+      <c r="M12" s="277"/>
     </row>
     <row r="13" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="171">
@@ -25649,9 +25691,9 @@
         <f t="shared" si="2"/>
         <v>17500</v>
       </c>
-      <c r="K13" s="274"/>
-      <c r="L13" s="275"/>
-      <c r="M13" s="276"/>
+      <c r="K13" s="275"/>
+      <c r="L13" s="276"/>
+      <c r="M13" s="277"/>
     </row>
     <row r="14" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="213">
@@ -25682,9 +25724,9 @@
         <f t="shared" si="2"/>
         <v>20000</v>
       </c>
-      <c r="K14" s="277"/>
-      <c r="L14" s="278"/>
-      <c r="M14" s="279"/>
+      <c r="K14" s="278"/>
+      <c r="L14" s="279"/>
+      <c r="M14" s="280"/>
     </row>
     <row r="15" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B15" s="171">
@@ -25715,11 +25757,11 @@
         <f t="shared" si="2"/>
         <v>22500</v>
       </c>
-      <c r="K15" s="280" t="s">
+      <c r="K15" s="281" t="s">
         <v>202</v>
       </c>
-      <c r="L15" s="281"/>
-      <c r="M15" s="282"/>
+      <c r="L15" s="282"/>
+      <c r="M15" s="283"/>
     </row>
     <row r="16" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B16" s="177">
@@ -25750,9 +25792,9 @@
         <f t="shared" si="2"/>
         <v>23000</v>
       </c>
-      <c r="K16" s="283"/>
-      <c r="L16" s="284"/>
-      <c r="M16" s="285"/>
+      <c r="K16" s="284"/>
+      <c r="L16" s="285"/>
+      <c r="M16" s="286"/>
     </row>
     <row r="17" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B17" s="171">
@@ -25783,9 +25825,9 @@
         <f t="shared" si="2"/>
         <v>25500</v>
       </c>
-      <c r="K17" s="283"/>
-      <c r="L17" s="284"/>
-      <c r="M17" s="285"/>
+      <c r="K17" s="284"/>
+      <c r="L17" s="285"/>
+      <c r="M17" s="286"/>
     </row>
     <row r="18" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B18" s="171">
@@ -25816,9 +25858,9 @@
         <f t="shared" si="2"/>
         <v>28000</v>
       </c>
-      <c r="K18" s="283"/>
-      <c r="L18" s="284"/>
-      <c r="M18" s="285"/>
+      <c r="K18" s="284"/>
+      <c r="L18" s="285"/>
+      <c r="M18" s="286"/>
     </row>
     <row r="19" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B19" s="171">
@@ -25849,9 +25891,9 @@
         <f t="shared" si="2"/>
         <v>30500</v>
       </c>
-      <c r="K19" s="283"/>
-      <c r="L19" s="284"/>
-      <c r="M19" s="285"/>
+      <c r="K19" s="284"/>
+      <c r="L19" s="285"/>
+      <c r="M19" s="286"/>
     </row>
     <row r="20" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B20" s="171">
@@ -25882,9 +25924,9 @@
         <f t="shared" si="2"/>
         <v>33000</v>
       </c>
-      <c r="K20" s="283"/>
-      <c r="L20" s="284"/>
-      <c r="M20" s="285"/>
+      <c r="K20" s="284"/>
+      <c r="L20" s="285"/>
+      <c r="M20" s="286"/>
     </row>
     <row r="21" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B21" s="171">
@@ -25915,9 +25957,9 @@
         <f t="shared" si="2"/>
         <v>35500</v>
       </c>
-      <c r="K21" s="283"/>
-      <c r="L21" s="284"/>
-      <c r="M21" s="285"/>
+      <c r="K21" s="284"/>
+      <c r="L21" s="285"/>
+      <c r="M21" s="286"/>
     </row>
     <row r="22" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B22" s="171">
@@ -25948,9 +25990,9 @@
         <f t="shared" si="2"/>
         <v>38000</v>
       </c>
-      <c r="K22" s="283"/>
-      <c r="L22" s="284"/>
-      <c r="M22" s="285"/>
+      <c r="K22" s="284"/>
+      <c r="L22" s="285"/>
+      <c r="M22" s="286"/>
     </row>
     <row r="23" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B23" s="174">
@@ -25975,9 +26017,9 @@
         <f t="shared" si="2"/>
         <v>38000</v>
       </c>
-      <c r="K23" s="283"/>
-      <c r="L23" s="284"/>
-      <c r="M23" s="285"/>
+      <c r="K23" s="284"/>
+      <c r="L23" s="285"/>
+      <c r="M23" s="286"/>
     </row>
     <row r="24" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B24" s="171">
@@ -26008,9 +26050,9 @@
         <f t="shared" si="2"/>
         <v>40500</v>
       </c>
-      <c r="K24" s="283"/>
-      <c r="L24" s="284"/>
-      <c r="M24" s="285"/>
+      <c r="K24" s="284"/>
+      <c r="L24" s="285"/>
+      <c r="M24" s="286"/>
     </row>
     <row r="25" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B25" s="171">
@@ -26041,9 +26083,9 @@
         <f t="shared" si="2"/>
         <v>45500</v>
       </c>
-      <c r="K25" s="283"/>
-      <c r="L25" s="284"/>
-      <c r="M25" s="285"/>
+      <c r="K25" s="284"/>
+      <c r="L25" s="285"/>
+      <c r="M25" s="286"/>
     </row>
     <row r="26" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B26" s="171">
@@ -26074,9 +26116,9 @@
         <f t="shared" si="2"/>
         <v>48000</v>
       </c>
-      <c r="K26" s="283"/>
-      <c r="L26" s="284"/>
-      <c r="M26" s="285"/>
+      <c r="K26" s="284"/>
+      <c r="L26" s="285"/>
+      <c r="M26" s="286"/>
     </row>
     <row r="27" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B27" s="171">
@@ -26107,9 +26149,9 @@
         <f t="shared" si="2"/>
         <v>50500</v>
       </c>
-      <c r="K27" s="286"/>
-      <c r="L27" s="287"/>
-      <c r="M27" s="288"/>
+      <c r="K27" s="287"/>
+      <c r="L27" s="288"/>
+      <c r="M27" s="289"/>
     </row>
     <row r="28" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="171">
@@ -26140,11 +26182,11 @@
         <f t="shared" si="2"/>
         <v>53000</v>
       </c>
-      <c r="K28" s="280" t="s">
+      <c r="K28" s="281" t="s">
         <v>201</v>
       </c>
-      <c r="L28" s="289"/>
-      <c r="M28" s="290"/>
+      <c r="L28" s="290"/>
+      <c r="M28" s="291"/>
     </row>
     <row r="29" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="171">
@@ -26175,9 +26217,9 @@
         <f t="shared" si="2"/>
         <v>55500</v>
       </c>
-      <c r="K29" s="291"/>
-      <c r="L29" s="292"/>
-      <c r="M29" s="293"/>
+      <c r="K29" s="292"/>
+      <c r="L29" s="293"/>
+      <c r="M29" s="294"/>
     </row>
     <row r="30" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="171">
@@ -26208,9 +26250,9 @@
         <f t="shared" si="2"/>
         <v>58000</v>
       </c>
-      <c r="K30" s="291"/>
-      <c r="L30" s="292"/>
-      <c r="M30" s="293"/>
+      <c r="K30" s="292"/>
+      <c r="L30" s="293"/>
+      <c r="M30" s="294"/>
     </row>
     <row r="31" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="171">
@@ -26241,9 +26283,9 @@
         <f t="shared" si="2"/>
         <v>60500</v>
       </c>
-      <c r="K31" s="291"/>
-      <c r="L31" s="292"/>
-      <c r="M31" s="293"/>
+      <c r="K31" s="292"/>
+      <c r="L31" s="293"/>
+      <c r="M31" s="294"/>
     </row>
     <row r="32" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="171">
@@ -26274,9 +26316,9 @@
         <f t="shared" si="2"/>
         <v>63000</v>
       </c>
-      <c r="K32" s="291"/>
-      <c r="L32" s="292"/>
-      <c r="M32" s="293"/>
+      <c r="K32" s="292"/>
+      <c r="L32" s="293"/>
+      <c r="M32" s="294"/>
     </row>
     <row r="33" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="171">
@@ -26307,9 +26349,9 @@
         <f t="shared" si="2"/>
         <v>65500</v>
       </c>
-      <c r="K33" s="291"/>
-      <c r="L33" s="292"/>
-      <c r="M33" s="293"/>
+      <c r="K33" s="292"/>
+      <c r="L33" s="293"/>
+      <c r="M33" s="294"/>
     </row>
     <row r="34" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="171">
@@ -26340,9 +26382,9 @@
         <f t="shared" si="2"/>
         <v>68000</v>
       </c>
-      <c r="K34" s="291"/>
-      <c r="L34" s="292"/>
-      <c r="M34" s="293"/>
+      <c r="K34" s="292"/>
+      <c r="L34" s="293"/>
+      <c r="M34" s="294"/>
     </row>
     <row r="35" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="171">
@@ -26373,9 +26415,9 @@
         <f t="shared" si="2"/>
         <v>71000</v>
       </c>
-      <c r="K35" s="291"/>
-      <c r="L35" s="292"/>
-      <c r="M35" s="293"/>
+      <c r="K35" s="292"/>
+      <c r="L35" s="293"/>
+      <c r="M35" s="294"/>
     </row>
     <row r="36" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="171">
@@ -26406,9 +26448,9 @@
         <f t="shared" si="2"/>
         <v>73500</v>
       </c>
-      <c r="K36" s="291"/>
-      <c r="L36" s="292"/>
-      <c r="M36" s="293"/>
+      <c r="K36" s="292"/>
+      <c r="L36" s="293"/>
+      <c r="M36" s="294"/>
     </row>
     <row r="37" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="171">
@@ -26439,9 +26481,9 @@
         <f t="shared" si="2"/>
         <v>76000</v>
       </c>
-      <c r="K37" s="291"/>
-      <c r="L37" s="292"/>
-      <c r="M37" s="293"/>
+      <c r="K37" s="292"/>
+      <c r="L37" s="293"/>
+      <c r="M37" s="294"/>
     </row>
     <row r="38" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="171">
@@ -26472,9 +26514,9 @@
         <f t="shared" si="2"/>
         <v>78500</v>
       </c>
-      <c r="K38" s="291"/>
-      <c r="L38" s="292"/>
-      <c r="M38" s="293"/>
+      <c r="K38" s="292"/>
+      <c r="L38" s="293"/>
+      <c r="M38" s="294"/>
     </row>
     <row r="39" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B39" s="171">
@@ -26505,9 +26547,9 @@
         <f t="shared" si="2"/>
         <v>81000</v>
       </c>
-      <c r="K39" s="291"/>
-      <c r="L39" s="292"/>
-      <c r="M39" s="293"/>
+      <c r="K39" s="292"/>
+      <c r="L39" s="293"/>
+      <c r="M39" s="294"/>
     </row>
     <row r="40" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B40" s="174">
